--- a/Project-k/Srikanth_1.xlsx
+++ b/Project-k/Srikanth_1.xlsx
@@ -19,9 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>commit_1</t>
+  </si>
+  <si>
+    <t>commit_2</t>
   </si>
 </sst>
 </file>
@@ -339,10 +342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -350,9 +353,12 @@
     <col min="1" max="1" width="41.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Project-k/Srikanth_1.xlsx
+++ b/Project-k/Srikanth_1.xlsx
@@ -19,12 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>commit_1</t>
   </si>
   <si>
     <t>commit_2</t>
+  </si>
+  <si>
+    <t>commit_3</t>
   </si>
 </sst>
 </file>
@@ -342,24 +345,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="41.08984375" customWidth="1"/>
+    <col min="2" max="2" width="28.90625" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project-k/Srikanth_1.xlsx
+++ b/Project-k/Srikanth_1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>commit_1</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>commit_3</t>
+  </si>
+  <si>
+    <t>commit_4</t>
   </si>
 </sst>
 </file>
@@ -345,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="A1:XFD1048576"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -358,7 +361,7 @@
     <col min="3" max="3" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -368,6 +371,9 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
